--- a/msff/xls/U.S.HomeLoc{git.xlsx
+++ b/msff/xls/U.S.HomeLoc{git.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638DF07-9995-4902-A307-D96881AED891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BECE2-5344-40F1-8F9F-2A4414D00120}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30270" yWindow="-5265" windowWidth="15180" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
   <si>
     <t>FF = Fort Hamilton Parkway</t>
   </si>
@@ -34,9 +34,6 @@
     <t>EE = East Orange</t>
   </si>
   <si>
-    <t>Chin groccery shopping</t>
-  </si>
-  <si>
     <t>ZZ = the JMZ line through Bushwick. Myrtle Ave and Flushing Ave</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>greater JC</t>
   </si>
   <si>
-    <t>affordable</t>
-  </si>
-  <si>
     <t>#3</t>
   </si>
   <si>
@@ -107,9 +101,6 @@
   </si>
   <si>
     <t>Edison</t>
-  </si>
-  <si>
-    <t>desirability for family</t>
   </si>
   <si>
     <t>y</t>
@@ -340,9 +331,6 @@
     <t>2600 sqf</t>
   </si>
   <si>
-    <t>car-free (100=SGP)</t>
-  </si>
-  <si>
     <t>Rental Demand</t>
   </si>
   <si>
@@ -404,6 +392,27 @@
   </si>
   <si>
     <t>__[D] white-collar family with kids?</t>
+  </si>
+  <si>
+    <t>华 groccery shopping</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>car-free #100=SG</t>
+  </si>
+  <si>
+    <t>desirability for family #2019</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>desirability for family #leaseSpread</t>
+  </si>
+  <si>
+    <t>affordable buying not renting</t>
   </si>
 </sst>
 </file>
@@ -634,7 +643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,6 +722,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1053,22 +1065,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="5.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
@@ -1078,11 +1090,11 @@
     <row r="1" spans="1:15" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E2" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="38"/>
       <c r="G2" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
@@ -1091,89 +1103,89 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" t="s">
         <v>9</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" t="s">
-        <v>108</v>
-      </c>
-      <c r="O3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1205,19 +1217,19 @@
         <v>66</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L5" s="14">
         <v>77</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1261,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1308,12 +1320,12 @@
         <v>50</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -1325,16 +1337,16 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G8">
         <v>99</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I8">
         <v>66</v>
@@ -1346,7 +1358,7 @@
         <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M8" s="5">
         <v>77</v>
@@ -1355,7 +1367,7 @@
         <v>33</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -1378,7 +1390,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
         <v>99</v>
@@ -1390,7 +1402,7 @@
         <v>77</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M9" s="8">
         <v>99</v>
@@ -1399,7 +1411,7 @@
         <v>66</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1446,12 +1458,12 @@
         <v>50</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5">
         <v>22</v>
@@ -1493,7 +1505,7 @@
         <v>55</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1540,7 +1552,7 @@
         <v>30</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1563,7 +1575,7 @@
         <v>99</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="7" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1606,7 +1618,7 @@
         <v>44</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>44</v>
@@ -1627,7 +1639,7 @@
         <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1674,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="O16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1700,7 +1712,7 @@
         <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <v>66</v>
@@ -1721,7 +1733,7 @@
         <v>55</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1768,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1776,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -1788,16 +1800,16 @@
         <v>33</v>
       </c>
       <c r="F19">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H19" s="5">
         <v>33</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J19" s="5">
         <v>44</v>
@@ -1812,10 +1824,10 @@
         <v>44</v>
       </c>
       <c r="N19">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1853,7 @@
         <v>0.2</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4">
         <v>0.1</v>
@@ -1862,47 +1874,47 @@
         <v>0.3</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1926,31 +1938,31 @@
         <v>600</v>
       </c>
       <c r="O22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K23" s="42"/>
       <c r="L23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="O23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1958,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I26">
         <v>44</v>
@@ -1970,41 +1982,70 @@
       <c r="L26">
         <v>90</v>
       </c>
+      <c r="M26" s="5">
+        <v>66</v>
+      </c>
       <c r="N26" s="5">
         <v>0</v>
       </c>
       <c r="O26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="44"/>
+      <c r="L27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
       <c r="M27" s="5" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="J27:K27"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="J22:K22"/>
@@ -2047,7 +2088,7 @@
     </row>
     <row r="4" spans="1:1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -2062,22 +2103,22 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2106,13 +2147,13 @@
   <sheetData>
     <row r="2" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -2129,7 +2170,7 @@
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2144,7 +2185,7 @@
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2159,7 +2200,7 @@
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2174,7 +2215,7 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2192,7 +2233,7 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2210,80 +2251,80 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B9" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="25">
         <v>1935</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,50 +2335,50 @@
         <v>7</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,77 +2390,77 @@
     </row>
     <row r="19" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,28 +2472,28 @@
     </row>
     <row r="25" spans="2:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
